--- a/校赛/ans-1.xlsx
+++ b/校赛/ans-1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/MATLAB/校赛/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/2018校赛数模/校赛/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{31EA3ABA-5663-3145-A7C0-237E1AF1E8D8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7E8ED9E7-7DB2-6F40-87BE-A03647F27DFD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="800" windowWidth="27700" windowHeight="16100" xr2:uid="{B57FD293-FA06-2346-83E7-73AA474A0EFA}"/>
   </bookViews>
@@ -761,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3303E7A9-4403-B04A-AAE3-649702B0D198}">
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -821,7 +821,7 @@
         <v>1664</v>
       </c>
       <c r="I2">
-        <v>0.77548275346589901</v>
+        <v>0.78443818302242696</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -850,7 +850,7 @@
         <v>2113</v>
       </c>
       <c r="I3">
-        <v>0.76002624911009498</v>
+        <v>0.76561286253106398</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -879,7 +879,7 @@
         <v>1615</v>
       </c>
       <c r="I4">
-        <v>0.69065764348227698</v>
+        <v>0.69645609703911404</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -908,7 +908,7 @@
         <v>1267</v>
       </c>
       <c r="I5">
-        <v>0.61574433654848004</v>
+        <v>0.62200245837883095</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -937,7 +937,7 @@
         <v>997</v>
       </c>
       <c r="I6">
-        <v>0.58844487369238296</v>
+        <v>0.59324346783124704</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -966,7 +966,7 @@
         <v>987</v>
       </c>
       <c r="I7">
-        <v>0.57993747169635201</v>
+        <v>0.58589056957028895</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -995,7 +995,7 @@
         <v>666</v>
       </c>
       <c r="I8">
-        <v>0.56123509807788996</v>
+        <v>0.56850207508587103</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1024,7 +1024,7 @@
         <v>868</v>
       </c>
       <c r="I9">
-        <v>0.55407830421474902</v>
+        <v>0.56043531972980598</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1053,7 +1053,7 @@
         <v>482</v>
       </c>
       <c r="I10">
-        <v>0.53751033078140698</v>
+        <v>0.54462060266608603</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1082,7 +1082,7 @@
         <v>741</v>
       </c>
       <c r="I11">
-        <v>0.52339597216535405</v>
+        <v>0.52984152853337896</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1111,7 +1111,7 @@
         <v>438</v>
       </c>
       <c r="I12">
-        <v>0.48175173045744901</v>
+        <v>0.48760037604568401</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1140,65 +1140,65 @@
         <v>440</v>
       </c>
       <c r="I13">
-        <v>0.48050017554785901</v>
+        <v>0.48695017594461498</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C14" s="1">
         <v>4</v>
       </c>
       <c r="D14" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E14" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="G14" s="1">
         <v>10</v>
       </c>
       <c r="H14" s="1">
-        <v>359</v>
+        <v>291</v>
       </c>
       <c r="I14">
-        <v>0.47933979939818</v>
+        <v>0.463612384219597</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B15" s="1">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1">
         <v>4</v>
       </c>
       <c r="D15" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="1">
-        <v>3</v>
-      </c>
-      <c r="G15" s="1">
-        <v>10</v>
-      </c>
       <c r="H15" s="1">
-        <v>291</v>
+        <v>214</v>
       </c>
       <c r="I15">
-        <v>0.45757374480371499</v>
+        <v>0.45328615735169597</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1227,36 +1227,36 @@
         <v>528</v>
       </c>
       <c r="I16">
-        <v>0.44925674852504</v>
+        <v>0.452981156620265</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
       </c>
       <c r="D17" s="1">
-        <v>4.4000000000000004</v>
+        <v>3.4</v>
       </c>
       <c r="E17" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="I17">
-        <v>0.44684397570095302</v>
+        <v>0.44305128053485998</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1285,82 +1285,82 @@
         <v>1631</v>
       </c>
       <c r="I18">
-        <v>0.43827025794254798</v>
+        <v>0.43629297327133398</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
         <v>4</v>
       </c>
-      <c r="D19" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H19" s="1">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="I19">
-        <v>0.43651730546422302</v>
+        <v>0.393951083128463</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B20" s="1">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="E20" s="1">
-        <v>0.4</v>
+        <v>100</v>
       </c>
       <c r="F20" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H20" s="1">
-        <v>318</v>
+        <v>1298</v>
       </c>
       <c r="I20">
-        <v>0.38591899330358698</v>
+        <v>0.38305936298710602</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C21" s="1">
         <v>3</v>
       </c>
       <c r="D21" s="1">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -1369,184 +1369,184 @@
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>289</v>
+        <v>218</v>
       </c>
       <c r="I21">
-        <v>0.36691126603090402</v>
+        <v>0.37779212314050398</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B22" s="1">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
       </c>
       <c r="D22" s="1">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="E22" s="1">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="F22" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>100</v>
+        <v>289</v>
       </c>
       <c r="I22">
-        <v>0.36202139102119801</v>
+        <v>0.37231176771936098</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" s="1">
         <v>30</v>
       </c>
       <c r="C23" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1">
         <v>4.0999999999999996</v>
       </c>
       <c r="E23" s="1">
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="F23" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G23" s="1">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="H23" s="1">
-        <v>100</v>
+        <v>1357</v>
       </c>
       <c r="I23">
-        <v>0.35746580670330802</v>
+        <v>0.37084657598162402</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B24" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C24" s="1">
         <v>3</v>
       </c>
       <c r="D24" s="1">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="E24" s="1">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F24" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G24" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H24" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I24">
-        <v>0.35512452601316802</v>
+        <v>0.36734575382777401</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
       </c>
       <c r="D25" s="1">
-        <v>3.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E25" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
         <v>8</v>
-      </c>
-      <c r="F25" s="1">
-        <v>5</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1</v>
       </c>
       <c r="H25" s="1">
         <v>100</v>
       </c>
       <c r="I25">
-        <v>0.35466909310324601</v>
+        <v>0.362922065643771</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B26" s="1">
+        <v>20</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1">
         <v>50</v>
       </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
+        <v>6</v>
+      </c>
+      <c r="G26" s="1">
+        <v>16</v>
+      </c>
+      <c r="H26" s="1">
         <v>40</v>
       </c>
-      <c r="F26" s="1">
-        <v>8</v>
-      </c>
-      <c r="G26" s="1">
-        <v>10</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1198</v>
-      </c>
       <c r="I26">
-        <v>0.34244983747357699</v>
+        <v>0.36040059740207098</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B27" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D27" s="1">
-        <v>4.0999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="E27" s="1">
-        <v>0.1</v>
+        <v>8</v>
       </c>
       <c r="F27" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G27" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="H27" s="1">
-        <v>1157</v>
+        <v>100</v>
       </c>
       <c r="I27">
-        <v>0.33130472874981498</v>
+        <v>0.36013330491194001</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1575,7 +1575,7 @@
         <v>383</v>
       </c>
       <c r="I28">
-        <v>0.306272404247383</v>
+        <v>0.31003440536566301</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1604,7 +1604,7 @@
         <v>333</v>
       </c>
       <c r="I29">
-        <v>0.28935092230618198</v>
+        <v>0.29290856493384798</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1621,7 +1621,7 @@
         <v>4.2</v>
       </c>
       <c r="E30" s="1">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="F30" s="1">
         <v>20</v>
@@ -1633,7 +1633,7 @@
         <v>774</v>
       </c>
       <c r="I30">
-        <v>0.269955459504017</v>
+        <v>0.28995551084904098</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1662,65 +1662,65 @@
         <v>738</v>
       </c>
       <c r="I31">
-        <v>0.267688282516232</v>
+        <v>0.26612124624045103</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B32" s="1">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
       </c>
       <c r="D32" s="1">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="E32" s="1">
+        <v>170</v>
+      </c>
+      <c r="F32" s="1">
+        <v>10</v>
+      </c>
+      <c r="G32" s="1">
         <v>20</v>
       </c>
-      <c r="F32" s="1">
-        <v>2</v>
-      </c>
-      <c r="G32" s="1">
-        <v>10</v>
-      </c>
       <c r="H32" s="1">
-        <v>635</v>
+        <v>670</v>
       </c>
       <c r="I32">
-        <v>0.26663999707881603</v>
+        <v>0.26037098443606499</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B33" s="1">
+        <v>300</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="E33" s="1">
         <v>20</v>
       </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1">
-        <v>4.7</v>
-      </c>
-      <c r="E33" s="1">
-        <v>170</v>
-      </c>
       <c r="F33" s="1">
+        <v>2</v>
+      </c>
+      <c r="G33" s="1">
         <v>10</v>
       </c>
-      <c r="G33" s="1">
-        <v>20</v>
-      </c>
       <c r="H33" s="1">
-        <v>670</v>
+        <v>635</v>
       </c>
       <c r="I33">
-        <v>0.26210980196296502</v>
+        <v>0.25861062391095402</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1749,7 +1749,7 @@
         <v>884</v>
       </c>
       <c r="I34">
-        <v>0.25818183073793399</v>
+        <v>0.25701240821890597</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1778,73 +1778,73 @@
         <v>794</v>
       </c>
       <c r="I35">
-        <v>0.252689281151878</v>
+        <v>0.25082536382209197</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="B36" s="1">
         <v>20</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D36" s="1">
-        <v>4.7</v>
+        <v>2</v>
       </c>
       <c r="E36" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F36" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H36" s="1">
-        <v>572</v>
+        <v>40</v>
       </c>
       <c r="I36">
-        <v>0.24032084147885799</v>
+        <v>0.23930533947070601</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B37" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
       </c>
       <c r="D37" s="1">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="E37" s="1">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="F37" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G37" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H37" s="1">
-        <v>666</v>
+        <v>572</v>
       </c>
       <c r="I37">
-        <v>0.23945199319406299</v>
+        <v>0.23903302573676599</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B38" s="1">
-        <v>230</v>
+        <v>30</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
@@ -1853,48 +1853,48 @@
         <v>4.5</v>
       </c>
       <c r="E38" s="1">
-        <v>230</v>
+        <v>30</v>
       </c>
       <c r="F38" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G38" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H38" s="1">
-        <v>224</v>
+        <v>666</v>
       </c>
       <c r="I38">
-        <v>0.23596893712668299</v>
+        <v>0.239022757090987</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="B39" s="1">
+        <v>230</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E39" s="1">
+        <v>230</v>
+      </c>
+      <c r="F39" s="1">
+        <v>12</v>
+      </c>
+      <c r="G39" s="1">
         <v>20</v>
       </c>
-      <c r="C39" s="1">
-        <v>2</v>
-      </c>
-      <c r="D39" s="1">
-        <v>2</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0</v>
-      </c>
       <c r="H39" s="1">
-        <v>40</v>
+        <v>224</v>
       </c>
       <c r="I39">
-        <v>0.23552074528073699</v>
+        <v>0.22874299558654901</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1923,7 +1923,7 @@
         <v>300</v>
       </c>
       <c r="I40">
-        <v>0.219018470143757</v>
+        <v>0.21723204147813199</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1952,7 +1952,7 @@
         <v>556</v>
       </c>
       <c r="I41">
-        <v>0.21802501040584901</v>
+        <v>0.21699811062437099</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1981,7 +1981,7 @@
         <v>555</v>
       </c>
       <c r="I42">
-        <v>0.202328547344967</v>
+        <v>0.202004896448335</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2010,7 +2010,7 @@
         <v>423</v>
       </c>
       <c r="I43">
-        <v>0.199424133067579</v>
+        <v>0.19872483758775</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2039,7 +2039,7 @@
         <v>129</v>
       </c>
       <c r="I44">
-        <v>0.19112389351635001</v>
+        <v>0.19098250731177799</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2068,99 +2068,99 @@
         <v>470</v>
       </c>
       <c r="I45">
-        <v>0.18748764383518801</v>
+        <v>0.186280216122305</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B46" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
       </c>
       <c r="D46" s="1">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="E46" s="1">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="F46" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G46" s="1">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="H46" s="1">
-        <v>100</v>
+        <v>237</v>
       </c>
       <c r="I46">
-        <v>0.18645794006809999</v>
+        <v>0.183395518315801</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B47" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
       </c>
       <c r="D47" s="1">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="E47" s="1">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F47" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G47" s="1">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="H47" s="1">
-        <v>237</v>
+        <v>100</v>
       </c>
       <c r="I47">
-        <v>0.182580166345399</v>
+        <v>0.18267423464725699</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B48" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C48" s="1">
         <v>0</v>
       </c>
       <c r="D48" s="1">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="E48" s="1">
-        <v>270</v>
+        <v>4</v>
       </c>
       <c r="F48" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G48" s="1">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="H48" s="1">
-        <v>20</v>
+        <v>333</v>
       </c>
       <c r="I48">
-        <v>0.182351225253369</v>
+        <v>0.18038383174693201</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="B49" s="1">
         <v>30</v>
@@ -2169,51 +2169,51 @@
         <v>0</v>
       </c>
       <c r="D49" s="1">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E49" s="1">
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="F49" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G49" s="1">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H49" s="1">
-        <v>333</v>
+        <v>114</v>
       </c>
       <c r="I49">
-        <v>0.18027962951798701</v>
+        <v>0.17802422472476701</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B50" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C50" s="1">
         <v>0</v>
       </c>
       <c r="D50" s="1">
-        <v>4.4000000000000004</v>
+        <v>3.5</v>
       </c>
       <c r="E50" s="1">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="F50" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G50" s="1">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="H50" s="1">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="I50">
-        <v>0.17954374208125801</v>
+        <v>0.17777657468618499</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2242,7 +2242,7 @@
         <v>200</v>
       </c>
       <c r="I51">
-        <v>0.17708808258994799</v>
+        <v>0.17618811695615499</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2271,65 +2271,65 @@
         <v>141</v>
       </c>
       <c r="I52">
-        <v>0.17002341022654199</v>
+        <v>0.169306134527927</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
       </c>
       <c r="D53" s="1">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="E53" s="1">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="F53" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G53" s="1">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="H53" s="1">
         <v>100</v>
       </c>
       <c r="I53">
-        <v>0.16958739346916599</v>
+        <v>0.169163998743139</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
       </c>
       <c r="D54" s="1">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="E54" s="1">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="F54" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G54" s="1">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="H54" s="1">
         <v>100</v>
       </c>
       <c r="I54">
-        <v>0.16830865471381801</v>
+        <v>0.16797032377455801</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2358,7 +2358,7 @@
         <v>40</v>
       </c>
       <c r="I55">
-        <v>0.16665136347797099</v>
+        <v>0.16710301927106</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2387,7 +2387,7 @@
         <v>191</v>
       </c>
       <c r="I56">
-        <v>0.16624385697258501</v>
+        <v>0.16706892684758701</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2416,7 +2416,7 @@
         <v>52</v>
       </c>
       <c r="I57">
-        <v>0.165690595224499</v>
+        <v>0.16649394682848201</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2445,7 +2445,7 @@
         <v>20</v>
       </c>
       <c r="I58">
-        <v>0.165596132997755</v>
+        <v>0.16589326912288899</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2474,7 +2474,7 @@
         <v>100</v>
       </c>
       <c r="I59">
-        <v>0.163199169366924</v>
+        <v>0.16163691220472601</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2503,65 +2503,65 @@
         <v>100</v>
       </c>
       <c r="I60">
-        <v>0.15833960851880499</v>
+        <v>0.159260948094889</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B61" s="1">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
       </c>
       <c r="D61" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="E61" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F61" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G61" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61" s="1">
         <v>100</v>
       </c>
       <c r="I61">
-        <v>0.15547844359692001</v>
+        <v>0.15624198161919001</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B62" s="1">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="C62" s="1">
         <v>0</v>
       </c>
       <c r="D62" s="1">
-        <v>4.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E62" s="1">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="F62" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G62" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H62" s="1">
         <v>100</v>
       </c>
       <c r="I62">
-        <v>0.155394805281062</v>
+        <v>0.152707290480292</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2590,7 +2590,7 @@
         <v>20</v>
       </c>
       <c r="I63">
-        <v>0.14931217843084801</v>
+        <v>0.148871113656348</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2619,181 +2619,181 @@
         <v>356</v>
       </c>
       <c r="I64">
-        <v>0.148238734434541</v>
+        <v>0.148045653854534</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="1">
         <v>30</v>
       </c>
-      <c r="B65" s="1">
-        <v>60</v>
-      </c>
       <c r="C65" s="1">
         <v>0</v>
       </c>
       <c r="D65" s="1">
-        <v>2.2000000000000002</v>
+        <v>4</v>
       </c>
       <c r="E65" s="1">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="F65" s="1">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="G65" s="1">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="H65" s="1">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I65">
-        <v>0.147785589681382</v>
+        <v>0.14639693262917999</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="B66" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C66" s="1">
         <v>0</v>
       </c>
       <c r="D66" s="1">
-        <v>4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E66" s="1">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="F66" s="1">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="G66" s="1">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="H66" s="1">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="I66">
-        <v>0.14660046322336001</v>
+        <v>0.14638233006094101</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B67" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C67" s="1">
         <v>0</v>
       </c>
       <c r="D67" s="1">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="E67" s="1">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="F67" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G67" s="1">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H67" s="1">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="I67">
-        <v>0.14280031932069601</v>
+        <v>0.14272185462744999</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B68" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C68" s="1">
         <v>0</v>
       </c>
       <c r="D68" s="1">
-        <v>3.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E68" s="1">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F68" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G68" s="1">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="H68" s="1">
-        <v>131</v>
+        <v>187</v>
       </c>
       <c r="I68">
-        <v>0.14278442799593699</v>
+        <v>0.14271524223128701</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="B69" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C69" s="1">
         <v>0</v>
       </c>
       <c r="D69" s="1">
-        <v>4.0999999999999996</v>
+        <v>3.8</v>
       </c>
       <c r="E69" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F69" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G69" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H69" s="1">
-        <v>187</v>
+        <v>300</v>
       </c>
       <c r="I69">
-        <v>0.14213846379629599</v>
+        <v>0.14146837215076699</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="B70" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C70" s="1">
         <v>0</v>
       </c>
       <c r="D70" s="1">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="E70" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="F70" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G70" s="1">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H70" s="1">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="I70">
-        <v>0.14121466905760999</v>
+        <v>0.141202553276948</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2822,7 +2822,7 @@
         <v>60</v>
       </c>
       <c r="I71">
-        <v>0.14098213430891099</v>
+        <v>0.139105760428268</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2851,7 +2851,7 @@
         <v>100</v>
       </c>
       <c r="I72">
-        <v>0.13789963578206901</v>
+        <v>0.138685526520027</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2880,7 +2880,7 @@
         <v>100</v>
       </c>
       <c r="I73">
-        <v>0.13750417354206601</v>
+        <v>0.138396935720488</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2909,7 +2909,7 @@
         <v>60</v>
       </c>
       <c r="I74">
-        <v>0.13098518533672601</v>
+        <v>0.131753248395684</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2938,7 +2938,7 @@
         <v>346</v>
       </c>
       <c r="I75">
-        <v>0.12609239123937399</v>
+        <v>0.124563794661008</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2967,7 +2967,7 @@
         <v>40</v>
       </c>
       <c r="I76">
-        <v>0.12315969010873599</v>
+        <v>0.12317095963288199</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2996,7 +2996,7 @@
         <v>60</v>
       </c>
       <c r="I77">
-        <v>0.12100609075237501</v>
+        <v>0.121672318086022</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3025,7 +3025,7 @@
         <v>264</v>
       </c>
       <c r="I78">
-        <v>0.119083622238429</v>
+        <v>0.118847766721007</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3054,7 +3054,7 @@
         <v>60</v>
       </c>
       <c r="I79">
-        <v>0.10362389537194901</v>
+        <v>0.10410731690896</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3083,7 +3083,17 @@
         <v>20</v>
       </c>
       <c r="I80">
-        <v>9.28205646283113E-2</v>
+        <v>9.2483771475231499E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="9:9">
+      <c r="I81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="9:9">
+      <c r="I82">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
